--- a/data/trans_media/IQ3004_MoAR-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ3004_MoAR-Estudios-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,87</t>
+          <t>6,6; 9,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 9,2</t>
+          <t>7,18; 9,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,04</t>
+          <t>6,38; 10,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,31</t>
+          <t>6,97; 10,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 9,44</t>
+          <t>7,18; 9,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 10,84</t>
+          <t>6,68; 10,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 9,26</t>
+          <t>7,01; 9,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 8,92</t>
+          <t>7,44; 9,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 9,71</t>
+          <t>6,99; 9,72</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 7,6</t>
+          <t>6,66; 7,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 8,36</t>
+          <t>7,33; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,16</t>
+          <t>6,55; 8,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,7</t>
+          <t>6,75; 7,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,92</t>
+          <t>7,06; 7,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 8,53</t>
+          <t>7,47; 8,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,5</t>
+          <t>6,82; 7,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,99</t>
+          <t>7,28; 8,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 8,1</t>
+          <t>7,18; 8,09</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 7,82</t>
+          <t>6,75; 7,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 8,31</t>
+          <t>7,08; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 8,01</t>
+          <t>6,87; 7,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,76</t>
+          <t>6,1; 7,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,57</t>
+          <t>7,26; 11,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 9,52</t>
+          <t>7,59; 9,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 7,58</t>
+          <t>6,65; 7,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 9,76</t>
+          <t>7,46; 9,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,44</t>
+          <t>7,32; 8,39</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,61</t>
+          <t>6,85; 7,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,17</t>
+          <t>7,41; 8,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,92</t>
+          <t>6,87; 7,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,65</t>
+          <t>6,74; 7,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,64</t>
+          <t>7,42; 8,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 8,55</t>
+          <t>7,7; 8,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,48</t>
+          <t>6,95; 7,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,22</t>
+          <t>7,49; 8,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,06</t>
+          <t>7,35; 8,01</t>
         </is>
       </c>
     </row>
